--- a/ref/ingestion/demo/model_input_variables_se_demo.xlsx
+++ b/ref/ingestion/demo/model_input_variables_se_demo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jsyme/Documents/Projects/git_jbus/lac_decarbonization/ref/ingestion/parameters_demo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jsyme/Documents/Projects/git_jbus/lac_decarbonization/ref/ingestion/demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C54582-D978-6B4E-95F4-CFA19C09584F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563D3252-8659-E248-9355-2A62D798841C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4660" yWindow="460" windowWidth="19900" windowHeight="15400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3740" yWindow="460" windowWidth="19900" windowHeight="15400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="strategy_id-0" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="61">
   <si>
     <t>subsector</t>
   </si>
@@ -222,7 +222,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,6 +234,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -274,11 +281,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -619,8 +627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AQ15" sqref="AQ15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2481,10 +2489,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AS1"/>
+  <dimension ref="A1:AS2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2626,6 +2634,133 @@
         <v>44</v>
       </c>
     </row>
+    <row r="2" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0.94</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0.89</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="R2" s="2">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="S2" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="T2" s="2">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="U2" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="V2" s="2">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="W2" s="2">
+        <v>0.69</v>
+      </c>
+      <c r="X2" s="2">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>0.64</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>0.54</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>0.49</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>0.41499999999999898</v>
+      </c>
+      <c r="AI2" s="2">
+        <v>0.38999999999999901</v>
+      </c>
+      <c r="AJ2" s="2">
+        <v>0.36499999999999899</v>
+      </c>
+      <c r="AK2" s="2">
+        <v>0.33999999999999903</v>
+      </c>
+      <c r="AL2" s="2">
+        <v>0.314999999999999</v>
+      </c>
+      <c r="AM2" s="2">
+        <v>0.28999999999999898</v>
+      </c>
+      <c r="AN2" s="2">
+        <v>0.26499999999999901</v>
+      </c>
+      <c r="AO2" s="2">
+        <v>0.23999999999999899</v>
+      </c>
+      <c r="AP2" s="2">
+        <v>0.214999999999999</v>
+      </c>
+      <c r="AQ2" s="2">
+        <v>0.189999999999999</v>
+      </c>
+      <c r="AR2" s="2">
+        <v>0.16499999999999901</v>
+      </c>
+      <c r="AS2" s="2">
+        <v>0.13999999999999899</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
